--- a/approach2_exp/results/jdk_3.xlsx
+++ b/approach2_exp/results/jdk_3.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate has demonstrated expertise in NLP, PyTorch, Computer Vision, Python. They have worked on multiple projects which show their ability to analyze data, build web applications, and develop models from scratch. This makes them a great candidate for the job and hence, they received the score of 78.13.</t>
+          <t xml:space="preserve"> The candidate has demonstrated experience with the skills mentioned in the job description by working on projects involving NLP, PyTorch, Computer Vision, Python, ReactJS, Django, Data Analysis, Tensorflow, Sklearn, Image Processing. The high score of 78.13 reflects their strong technical aptitude and familiarity with the required skills.</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate is a perfect fit for the position, with applicable skills such as NLP, Pytorch, Computer Vision, and Python. The candidate's portfolio includes a project that demonstrates their ability to use ReactJS, HTML, and CSS. Their score of 65.99 reflects their capability to execute the job role and their ability to use the required skills.</t>
+          <t xml:space="preserve"> The candidate has experience in the relevant skills required for the job as well as a project which involved ReactJS, HTML, CSS, which are all relevant to the job description. Thus, a score of 65.99 is justified.</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The candidate has the skills required for the job and has demonstrated their capabilities in their projects. The use of Pytorch, Tensorflow, Keras, Django Rest Framework, ReactJS, Python, Computer Vision, Image Processing show that the candidate has the technical know-how and experience to fulfil the job requirements. The score of 84.24 is a testament to the candidate's capabilities.</t>
+          <t xml:space="preserve">
+The candidate has a strong set of projects that demonstrate their expertise in NLP, PyTorch, Computer Vision, Python, Django Rest Framework, and ReactJS. This makes them well-suited for the NLP engineer role, which requires these skills. The score of 84.24 reflects their aptness for the job position.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_3.xlsx
+++ b/approach2_exp/results/jdk_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>project_count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>reason</t>
         </is>
       </c>
@@ -458,11 +463,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>78.13</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The candidate has demonstrated experience with the skills mentioned in the job description by working on projects involving NLP, PyTorch, Computer Vision, Python, ReactJS, Django, Data Analysis, Tensorflow, Sklearn, Image Processing. The high score of 78.13 reflects their strong technical aptitude and familiarity with the required skills.</t>
+        <v>75.93000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate has demonstrated strong technical skills in NLP, PyTorch, Computer Vision, Python, ReactJS, Django, Image Processing, and Data Analysis. The projects show an in-depth understanding of the necessary technologies and their application to the job role. The score of 75.93 reflects the candidate's technical proficiency and aptness for the job.</t>
         </is>
       </c>
     </row>
@@ -474,11 +483,15 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The candidate has experience in the relevant skills required for the job as well as a project which involved ReactJS, HTML, CSS, which are all relevant to the job description. Thus, a score of 65.99 is justified.</t>
+        <v>54.99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The candidate's score of 54.99 is moderate as the skills and projects the candidate has worked on do not completely match the job description. While the candidate has experience in ReactJS, HTML, and CSS, these are not the skills that are required for the job. Additionally, the project does not involve working with NLP, Pytorch, Computer Vision, or Python, which are the skills required for the job.</t>
         </is>
       </c>
     </row>
@@ -490,12 +503,15 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>84.23999999999999</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>82.28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has a strong set of projects that demonstrate their expertise in NLP, PyTorch, Computer Vision, Python, Django Rest Framework, and ReactJS. This makes them well-suited for the NLP engineer role, which requires these skills. The score of 84.24 reflects their aptness for the job position.</t>
+The candidate has been given a score of 82.28 because they possess the required skills (NLP, Pytorch, Computer Vision and Python) and have worked on relevant projects. They have experience in post-processing of large language models, multi-model data analysis for annotation of human activities, cloudphysician's vital extraction challenge, and creating a website for the literature society of the college. This demonstrates their proficiency in using the required skills to complete complicated tasks, making the candidate well-suited for the role.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_3.xlsx
+++ b/approach2_exp/results/jdk_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,18 +460,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>75.93000000000001</v>
+        <v>56.54</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has demonstrated strong technical skills in NLP, PyTorch, Computer Vision, Python, ReactJS, Django, Image Processing, and Data Analysis. The projects show an in-depth understanding of the necessary technologies and their application to the job role. The score of 75.93 reflects the candidate's technical proficiency and aptness for the job.</t>
+Reasoning: The candidate has the required skills for the job, but the projects they have worked on do not demonstrate any experience in NLP, Pytorch, Computer Vision, or Python. The candidate does have experience with ReactJS, HTML, CSS, Flutter, Dart, and Firebase, however, these are not the skills required for the job. Therefore, the candidate is only partially suited for the role and has been given a score of 56.54.</t>
         </is>
       </c>
     </row>
@@ -480,38 +480,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>54.99</v>
+        <v>81.56</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate's score of 54.99 is moderate as the skills and projects the candidate has worked on do not completely match the job description. While the candidate has experience in ReactJS, HTML, and CSS, these are not the skills that are required for the job. Additionally, the project does not involve working with NLP, Pytorch, Computer Vision, or Python, which are the skills required for the job.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>82.28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The candidate has been given a score of 82.28 because they possess the required skills (NLP, Pytorch, Computer Vision and Python) and have worked on relevant projects. They have experience in post-processing of large language models, multi-model data analysis for annotation of human activities, cloudphysician's vital extraction challenge, and creating a website for the literature society of the college. This demonstrates their proficiency in using the required skills to complete complicated tasks, making the candidate well-suited for the role.</t>
+The candidate has been given a score of 81.56 because they have the technical skills and experience in the required fields necessary for the NLP engineer position, such as NLP, Pytorch, Computer Vision, and Python. Their projects demonstrate their knowledge in data analysis, multi-model data analysis, object detection, text recognition, and web development. This makes them an excellent fit for the job and they have been given a high score accordingly.</t>
         </is>
       </c>
     </row>

--- a/approach2_exp/results/jdk_3.xlsx
+++ b/approach2_exp/results/jdk_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,64 +434,61 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>final_score</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>final_score</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_count</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>56.54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>76.95</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reasoning: The candidate has the required skills for the job, but the projects they have worked on do not demonstrate any experience in NLP, Pytorch, Computer Vision, or Python. The candidate does have experience with ReactJS, HTML, CSS, Flutter, Dart, and Firebase, however, these are not the skills required for the job. Therefore, the candidate is only partially suited for the role and has been given a score of 56.54.</t>
+Answer: The candidate has scored 76.95 out of 100 due to their demonstrated experience in NLP, PyTorch, Computer Vision, Python, ReactJS, Django, Data Analysis, Tensorflow, Sklearn, Image Processing, and other related technologies. Their projects showcase their ability to develop and improve language models, prototype and provide proof of concepts for deep learning, object detection/classification, and tracking, as well as detecting bias and toxicity in language models, cleaning and annotating data, segmenting ICU monitor images, and extracting vital data. The successful implementation of the FaceNet architecture also adds to the candidate's score.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reasoning: The candidate has the required skills for the job and has demonstrated their proficiency in the projects they have worked on. However, their experience with NLP, Pytorch, Computer Vision, and Python is limited and they do not have a full understanding of the technology required for the job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>81.56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The candidate has been given a score of 81.56 because they have the technical skills and experience in the required fields necessary for the NLP engineer position, such as NLP, Pytorch, Computer Vision, and Python. Their projects demonstrate their knowledge in data analysis, multi-model data analysis, object detection, text recognition, and web development. This makes them an excellent fit for the job and they have been given a high score accordingly.</t>
+Reasoning: The candidate has demonstrated advanced knowledge and experience in the fields of NLP, Pytorch, Computer Vision, Python, and other technologies required for the job. The projects and skills used show a strong understanding of the requirements of the job position and the candidate is well suited for the role. This is why the candidate has been given a score of 80.91.</t>
         </is>
       </c>
     </row>
